--- a/playWave_data.xlsx
+++ b/playWave_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\게임 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="8910" windowHeight="6735" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,22 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <x:si>
-    <x:t>wave_enemy_count</x:t>
+    <x:t>wave_timer</x:t>
   </x:si>
   <x:si>
-    <x:t>wave_enemy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_1</x:t>
+    <x:t>Test_Boss_1</x:t>
   </x:si>
   <x:si>
     <x:t>Test_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_2</x:t>
   </x:si>
   <x:si>
     <x:t>string</x:t>
@@ -45,13 +36,22 @@
     <x:t>float</x:t>
   </x:si>
   <x:si>
+    <x:t>Test_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>wave_id</x:t>
   </x:si>
   <x:si>
-    <x:t>wave_timer</x:t>
+    <x:t>wave_enemy_count</x:t>
   </x:si>
   <x:si>
-    <x:t>Test_Boss_1</x:t>
+    <x:t>wave_enemy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -198,7 +198,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -281,7 +280,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -316,7 +314,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -361,7 +358,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -405,7 +401,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -490,7 +485,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -511,7 +505,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -542,7 +535,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -911,7 +903,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
+      <x:selection activeCell="I8" activeCellId="0" sqref="I8:I8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -924,30 +916,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="D1" s="1" t="s">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -955,7 +947,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="3">
         <x:v>10</x:v>
@@ -983,7 +975,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="3">
         <x:v>1</x:v>
@@ -997,17 +989,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="3">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="3">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/playWave_data.xlsx
+++ b/playWave_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\게임 개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,12 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <x:si>
+    <x:t>wave_enemy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_Boss_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_Boss_2</x:t>
+  </x:si>
   <x:si>
     <x:t>wave_timer</x:t>
   </x:si>
   <x:si>
-    <x:t>Test_Boss_1</x:t>
+    <x:t>wave_enemy_count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wave_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
   </x:si>
   <x:si>
     <x:t>Test_3</x:t>
@@ -33,7 +54,10 @@
     <x:t>string</x:t>
   </x:si>
   <x:si>
-    <x:t>float</x:t>
+    <x:t>Test_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_6</x:t>
   </x:si>
   <x:si>
     <x:t>Test_2</x:t>
@@ -42,16 +66,16 @@
     <x:t>Test_1</x:t>
   </x:si>
   <x:si>
-    <x:t>wave_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wave_enemy_count</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wave_enemy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
+    <x:t>Test_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -145,7 +169,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -188,6 +212,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -900,10 +927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:D6"/>
+  <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I8" activeCellId="0" sqref="I8:I8"/>
+      <x:selection activeCell="G8" activeCellId="0" sqref="G8:G8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -919,27 +946,27 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -947,13 +974,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="3">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -961,13 +988,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="3">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="3">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -975,13 +1002,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="3">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" s="3">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -989,14 +1016,132 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D6" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D8" s="3">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D9" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D10" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C11" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C12" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D12" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C13" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D13" s="3">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C6" s="3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D6" s="3">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="C14" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D14" s="3">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="4"/>
+      <x:c r="B15" s="4"/>
+      <x:c r="C15" s="4"/>
+      <x:c r="D15" s="4"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>

--- a/playWave_data.xlsx
+++ b/playWave_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="5295" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,61 +21,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wave_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_Boss_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wave_timer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_Boss_2</x:t>
+  </x:si>
+  <x:si>
     <x:t>wave_enemy_name</x:t>
   </x:si>
   <x:si>
-    <x:t>Test_Boss_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_Boss_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wave_timer</x:t>
-  </x:si>
-  <x:si>
     <x:t>wave_enemy_count</x:t>
   </x:si>
   <x:si>
     <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wave_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -930,7 +930,7 @@
   <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G8" activeCellId="0" sqref="G8:G8"/>
+      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -943,30 +943,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -974,10 +974,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>15</x:v>
@@ -988,10 +988,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>30</x:v>
@@ -1002,10 +1002,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>30</x:v>
@@ -1016,10 +1016,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>30</x:v>
@@ -1030,10 +1030,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>30</x:v>
@@ -1044,10 +1044,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="3">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>60</x:v>
@@ -1058,10 +1058,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>30</x:v>
@@ -1072,10 +1072,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>30</x:v>
@@ -1086,10 +1086,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>30</x:v>
@@ -1100,10 +1100,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>30</x:v>
@@ -1114,10 +1114,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C13" s="3">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>30</x:v>
@@ -1128,10 +1128,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="3">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="3">
         <x:v>60</x:v>

--- a/playWave_data.xlsx
+++ b/playWave_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\Defence Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="5295" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,61 +21,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <x:si>
+    <x:t>wave_enemy_count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wave_enemy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_5</x:t>
+  </x:si>
+  <x:si>
     <x:t>string</x:t>
   </x:si>
   <x:si>
+    <x:t>Test_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wave_id</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test_3</x:t>
   </x:si>
   <x:si>
-    <x:t>wave_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_5</x:t>
-  </x:si>
-  <x:si>
     <x:t>Test_9</x:t>
   </x:si>
   <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test_Boss_1</x:t>
   </x:si>
   <x:si>
+    <x:t>Test_Boss_2</x:t>
+  </x:si>
+  <x:si>
     <x:t>wave_timer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_Boss_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wave_enemy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wave_enemy_count</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -225,6 +225,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -307,6 +308,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -341,6 +343,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -385,6 +388,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -428,6 +432,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -512,6 +517,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -532,6 +538,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -562,6 +569,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -930,7 +938,7 @@
   <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
+      <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -943,30 +951,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -974,10 +982,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>15</x:v>
@@ -988,10 +996,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>30</x:v>
@@ -1002,10 +1010,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>30</x:v>
@@ -1016,10 +1024,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>30</x:v>
@@ -1030,10 +1038,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>30</x:v>
@@ -1044,10 +1052,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="3">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>60</x:v>
@@ -1058,10 +1066,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>30</x:v>
@@ -1072,10 +1080,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>30</x:v>
@@ -1086,10 +1094,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>30</x:v>
@@ -1100,10 +1108,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>30</x:v>
@@ -1114,10 +1122,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C13" s="3">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>30</x:v>
@@ -1128,10 +1136,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="3">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="3">
         <x:v>60</x:v>
